--- a/Bilag/Process/Gantt-diagram/Gantt-diagram.xlsx
+++ b/Bilag/Process/Gantt-diagram/Gantt-diagram.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="A2:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,18 +651,18 @@
         <v>7</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>

--- a/Bilag/Process/Gantt-diagram/Gantt-diagram.xlsx
+++ b/Bilag/Process/Gantt-diagram/Gantt-diagram.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Task/Uge</t>
   </si>
@@ -50,20 +50,23 @@
     <t>Proces Rapport</t>
   </si>
   <si>
-    <t>Server</t>
-  </si>
-  <si>
     <t>Applikation</t>
   </si>
   <si>
     <t>Byggemiljø</t>
+  </si>
+  <si>
+    <t>Gantt-diagram for Rambøll Tilsyn</t>
+  </si>
+  <si>
+    <t>Firebase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +81,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +100,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -133,6 +150,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,129 +467,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8F147A-D9DB-4901-920D-CC61345E29F7}">
-  <dimension ref="A2:S12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="18" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
         <v>35</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>36</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>37</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>38</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="2">
         <v>39</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="2">
         <v>40</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H3" s="2">
         <v>41</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I3" s="2">
         <v>42</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J3" s="2">
         <v>43</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K3" s="2">
         <v>44</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L3" s="2">
         <v>45</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M3" s="2">
         <v>46</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N3" s="2">
         <v>47</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O3" s="2">
         <v>48</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>49</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>50</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R3" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -577,34 +581,34 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="5"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -617,126 +621,148 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="5"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>